--- a/r2py/raw-data-python/quadrats.xlsx
+++ b/r2py/raw-data-python/quadrats.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Ria Formosa-q1</t>
+    <t>Area (m2)</t>
   </si>
   <si>
-    <t>Ria Formosa-q2</t>
+    <t>Ria Formosa-rf</t>
   </si>
   <si>
-    <t>Area (m2)</t>
+    <t>Ria Alvor-ra</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -366,10 +366,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -379,7 +379,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>250</v>
